--- a/已完成文档/02-数据库设计.xlsx
+++ b/已完成文档/02-数据库设计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F907A-AE6E-4908-9559-4C7A60589164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC806D56-E134-44A8-84CC-7106843B956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E34682C-E37C-4BB9-ABB7-5220D6016640}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="136">
   <si>
     <t>表中文名</t>
   </si>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>权限控制表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -585,9 +589,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -599,6 +600,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -616,6 +620,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A83620D-9BE8-6FEF-A612-B479365B8939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4960620" y="525780"/>
+          <a:ext cx="8442960" cy="5730240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515A89CF-3D11-4B4A-8A2B-B7AA290469A4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -928,7 +998,7 @@
     <col min="4" max="4" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -939,13 +1009,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -954,9 +1024,12 @@
       <c r="C3" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -966,8 +1039,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -977,8 +1050,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -988,8 +1061,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -999,8 +1072,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1010,8 +1083,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1021,8 +1094,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1032,8 +1105,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1043,8 +1116,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1054,8 +1127,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1081,6 +1154,7 @@
     <hyperlink ref="A13" location="n_permission!B1" display="n_permission!B1" xr:uid="{D340EE38-9124-4A14-8D15-FD0D15EFAC01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1108,22 +1182,22 @@
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1137,172 +1211,172 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1342,22 +1416,22 @@
       <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1371,109 +1445,109 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1511,22 +1585,22 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1540,67 +1614,67 @@
       </c>
     </row>
     <row r="3" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -1640,22 +1714,22 @@
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1669,170 +1743,170 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1873,22 +1947,22 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1902,46 +1976,46 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1979,22 +2053,22 @@
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2008,109 +2082,109 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2148,22 +2222,22 @@
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2177,88 +2251,88 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2298,22 +2372,22 @@
       <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2327,197 +2401,197 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2555,22 +2629,22 @@
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2584,46 +2658,46 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2661,22 +2735,22 @@
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2690,88 +2764,88 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2809,22 +2883,22 @@
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2838,46 +2912,46 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/已完成文档/02-数据库设计.xlsx
+++ b/已完成文档/02-数据库设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC806D56-E134-44A8-84CC-7106843B956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4951B7C-8D22-4ECB-8AEC-88A5EE2A90A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E34682C-E37C-4BB9-ABB7-5220D6016640}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69E18D67-24DE-4326-9CEB-A9E0171C2B75}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="n_doctor" sheetId="10" r:id="rId10"/>
     <sheet name="n_login" sheetId="11" r:id="rId11"/>
     <sheet name="n_permission" sheetId="12" r:id="rId12"/>
+    <sheet name="n_landingAds" sheetId="13" r:id="rId13"/>
+    <sheet name="n_patientMedicine" sheetId="14" r:id="rId14"/>
+    <sheet name="n_orderDrug" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="167">
   <si>
     <t>表中文名</t>
   </si>
@@ -88,6 +91,15 @@
     <t>n_permission</t>
   </si>
   <si>
+    <t>n_landingAds</t>
+  </si>
+  <si>
+    <t>n_patientMedicine</t>
+  </si>
+  <si>
+    <t>n_orderDrug</t>
+  </si>
+  <si>
     <t>返回目录</t>
   </si>
   <si>
@@ -418,6 +430,81 @@
     <t>访问boolean</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+  </si>
+  <si>
+    <t>广告图片</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>链接地址</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>p_userId</t>
+  </si>
+  <si>
+    <t>患者id</t>
+  </si>
+  <si>
+    <t>p_doctorId</t>
+  </si>
+  <si>
+    <t>p_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>最后一次修改时间</t>
+  </si>
+  <si>
+    <t>p_price</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>p_state</t>
+  </si>
+  <si>
+    <t>当前状态(已发、未发、已退药)</t>
+  </si>
+  <si>
+    <t>p_version</t>
+  </si>
+  <si>
+    <t>p_delete</t>
+  </si>
+  <si>
+    <t>o_id</t>
+  </si>
+  <si>
+    <t>订单id</t>
+  </si>
+  <si>
+    <t>o_drugId</t>
+  </si>
+  <si>
+    <t>药品表</t>
+  </si>
+  <si>
+    <t>o_number</t>
+  </si>
+  <si>
     <t>用户表</t>
   </si>
   <si>
@@ -446,14 +533,24 @@
   </si>
   <si>
     <t>登陆表</t>
+  </si>
+  <si>
+    <t>权限控制表</t>
+  </si>
+  <si>
+    <t>广告表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>权限控制表</t>
+    <t>订单表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ER图</t>
+    <t>订单药品表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>er图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -567,14 +664,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,9 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -626,23 +720,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1836420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>459062</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A83620D-9BE8-6FEF-A612-B479365B8939}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9751435-E0AB-3217-EE6A-7CAC97494A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -665,8 +759,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4960620" y="525780"/>
-          <a:ext cx="8442960" cy="5730240"/>
+          <a:off x="4686300" y="272888"/>
+          <a:ext cx="9168722" cy="5297331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,11 +1078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515A89CF-3D11-4B4A-8A2B-B7AA290469A4}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C9D4F2-4A09-42CB-B3EF-CFF32BCBC016}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -999,159 +1093,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>127</v>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>128</v>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>129</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>130</v>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>131</v>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>132</v>
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>133</v>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>134</v>
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" location="n_user!B1" display="n_user!B1" xr:uid="{C65052D9-932C-416D-A033-9B49546194FA}"/>
-    <hyperlink ref="A4" location="n_generalItem!B1" display="n_generalItem!B1" xr:uid="{7E1A6FA3-074A-4DBF-8F1F-D04FA046AC07}"/>
-    <hyperlink ref="A5" location="n_department!B1" display="n_department!B1" xr:uid="{C33F7BA8-8482-4835-8CB3-F3CEE743D2DC}"/>
-    <hyperlink ref="A6" location="n_registered!B1" display="n_registered!B1" xr:uid="{0F5434D4-12F5-4628-985D-CF6F348018BD}"/>
-    <hyperlink ref="A7" location="n_nonDrug!B1" display="n_nonDrug!B1" xr:uid="{666AA900-B291-4DF1-9078-D4A715364D50}"/>
-    <hyperlink ref="A8" location="n_drugSpecification!B1" display="n_drugSpecification!B1" xr:uid="{43AB898E-92D3-4298-A028-B113D9DF4E1F}"/>
-    <hyperlink ref="A9" location="n_schedule!B1" display="n_schedule!B1" xr:uid="{CFE2CE5E-E5D3-45EF-BEAE-AA8667D5B69D}"/>
-    <hyperlink ref="A10" location="n_departClassification!B1" display="n_departClassification!B1" xr:uid="{01A394A6-7133-40C7-90F3-12D566E99464}"/>
-    <hyperlink ref="A11" location="n_doctor!B1" display="n_doctor!B1" xr:uid="{668F138E-496A-4E8D-9AF4-7044F88BEDD3}"/>
-    <hyperlink ref="A12" location="n_login!B1" display="n_login!B1" xr:uid="{D7C373CB-88A1-411B-8692-9E6725BCA2DD}"/>
-    <hyperlink ref="A13" location="n_permission!B1" display="n_permission!B1" xr:uid="{D340EE38-9124-4A14-8D15-FD0D15EFAC01}"/>
+    <hyperlink ref="A13" location="n_landingAds!B1" display="n_landingAds!B1" xr:uid="{6E5540BE-0A03-4EE9-B297-5DE1B83DDDF1}"/>
+    <hyperlink ref="A14" location="n_patientMedicine!B1" display="n_patientMedicine!B1" xr:uid="{B5F3E40D-C4BC-4896-B0BD-67C700A8AF47}"/>
+    <hyperlink ref="A15" location="n_orderDrug!B1" display="n_orderDrug!B1" xr:uid="{0CFDF76E-5F3E-49D2-8F71-4012DF17C57F}"/>
+    <hyperlink ref="A12" location="n_permission!B1" display="n_permission!B1" xr:uid="{E3D8E2D7-B582-40AC-BFBA-4202067F9AD9}"/>
+    <hyperlink ref="A11" location="n_login!B1" display="n_login!B1" xr:uid="{9A465762-381D-48B8-A12C-EB03B07E7D5E}"/>
+    <hyperlink ref="A10" location="n_doctor!B1" display="n_doctor!B1" xr:uid="{4B8171B8-96BB-4E9D-BE9A-32C5DC55E608}"/>
+    <hyperlink ref="A9" location="n_departClassification!B1" display="n_departClassification!B1" xr:uid="{1FE09D9A-8C95-44EE-B282-BB3DC8649E4E}"/>
+    <hyperlink ref="A8" location="n_schedule!B1" display="n_schedule!B1" xr:uid="{FC85CD02-95F5-4DFA-9C55-66666A5958C7}"/>
+    <hyperlink ref="A7" location="n_drugSpecification!B1" display="n_drugSpecification!B1" xr:uid="{E767662A-2C85-4F9A-8BDC-EC5D9C45505E}"/>
+    <hyperlink ref="A6" location="n_nonDrug!B1" display="n_nonDrug!B1" xr:uid="{4790D4C1-E2D5-4998-8070-D96BD21B2CFB}"/>
+    <hyperlink ref="A5" location="n_registered!B1" display="n_registered!B1" xr:uid="{D0042019-A97E-4F39-B6FA-8D9201BFE050}"/>
+    <hyperlink ref="A4" location="n_department!B1" display="n_department!B1" xr:uid="{777F79E6-D235-43E6-BB21-58B4D379CC24}"/>
+    <hyperlink ref="A3" location="n_generalItem!B1" display="n_generalItem!B1" xr:uid="{13428470-018F-4A80-B969-3BD5A25E8808}"/>
+    <hyperlink ref="A2" location="n_user!B1" display="n_user!B1" xr:uid="{90CD5C20-4010-4794-9D61-E13930BAB743}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1159,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A243B113-EFEF-4DBE-B901-E9C4F5BAD9BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFD458B-9ED2-46A9-92CF-BDFFCEE1EC79}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1174,7 +1299,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -1182,199 +1307,199 @@
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1386,14 +1511,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B11" display="目录!B11" xr:uid="{F0FC0767-17A7-4A85-9B0D-81FF861DEEA7}"/>
+    <hyperlink ref="A1" location="目录!B11" display="目录!B11" xr:uid="{E8674474-3258-4771-80BA-F25D4462484B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF107644-E1F8-42AA-B875-1CBC3453B879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055617EF-8BA7-4E55-95F7-5DEA6A95C684}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1408,7 +1533,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -1416,136 +1541,136 @@
       <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -1555,14 +1680,504 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B12" display="目录!B12" xr:uid="{E236EC91-2D66-4DD7-9021-F8950D533130}"/>
+    <hyperlink ref="A1" location="目录!B12" display="目录!B12" xr:uid="{3218F986-35FF-41ED-AD7A-989FB4B244EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6316DB9-BDD4-43A9-BE70-2FB5516613CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E77522-0E28-43A3-9047-CC3E7431D2B9}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!B13" display="目录!B13" xr:uid="{BC46DBA8-DB20-4B18-B3B9-5A2EBE93B066}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B50A2-65FC-4AE5-AAFA-B5CC7C4A3BD1}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!B14" display="目录!B14" xr:uid="{7B04A537-60E2-4ED5-BF26-CC4E4EE63219}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DBB675-7B91-4FE6-B5B5-24B34086D715}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!B15" display="目录!B15" xr:uid="{BA41B8BD-3987-4C37-8F0F-9B7F6766A69E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B1AB2-7B29-44EB-8C87-B90FF61320B7}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1577,102 +2192,102 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -1684,14 +2299,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B13" display="目录!B13" xr:uid="{121FDE78-3339-45F6-92C8-3DFC7C978C85}"/>
+    <hyperlink ref="A1" location="目录!B16" display="目录!B16" xr:uid="{A8C9E064-612A-42CC-ABC7-C17CFCC1ACAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06FB641-223E-4F52-86DE-1CD7E8C770F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1899B-21EA-4CE7-97F6-46A3B36AB052}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1706,7 +2321,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -1714,197 +2329,197 @@
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1916,7 +2531,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B3" display="目录!B3" xr:uid="{17B3F4F1-C96C-4768-B04D-C31714138C95}"/>
+    <hyperlink ref="A1" location="目录!B3" display="目录!B3" xr:uid="{1A2237E3-1251-43F0-A2F2-EB6B137E3958}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1924,7 +2539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA297D61-F535-43E1-8974-2E30F11791B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CDFC25F-F535-4DB5-AB0F-D0BC6ED44E1F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1939,7 +2554,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -1947,73 +2562,73 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -2023,14 +2638,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B4" display="目录!B4" xr:uid="{05CB88F1-5386-4B46-8538-374B3C4A5706}"/>
+    <hyperlink ref="A1" location="目录!B4" display="目录!B4" xr:uid="{88123C3D-1CAB-4DFD-B7C6-7482267D7A2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8061C60-D4D9-4127-A221-70EE3D2E9E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3DC2A8-F3C9-4473-9363-BAC7F4DF83D9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2045,7 +2660,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -2053,136 +2668,136 @@
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -2192,14 +2807,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B5" display="目录!B5" xr:uid="{EFACF326-7702-4E80-A4E7-BC50BE12ACE0}"/>
+    <hyperlink ref="A1" location="目录!B5" display="目录!B5" xr:uid="{26FFAEC5-805A-4E43-8EB3-7337471A3A0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71766C44-1477-4A6F-BF8E-DA33E0898C42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEDA2CD-BB59-4E9C-8A16-DACB49BBAE0F}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2214,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
@@ -2222,115 +2837,115 @@
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -2342,14 +2957,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B6" display="目录!B6" xr:uid="{B1A4193D-4CB0-4623-AACB-16922A4C787C}"/>
+    <hyperlink ref="A1" location="目录!B6" display="目录!B6" xr:uid="{DF1634D3-1C05-4491-B675-95CF0D92ED64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC1979A-5130-4063-ADFD-13CFD02B74E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A8FB89-086B-4DE0-9107-8939B5D8DA9A}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2364,7 +2979,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
@@ -2372,178 +2987,178 @@
       <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -2551,22 +3166,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -2574,22 +3189,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G11" s="8"/>
     </row>
@@ -2599,14 +3214,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B7" display="目录!B7" xr:uid="{F4F22518-0E10-4DD4-8F62-D6EE7E0BF54D}"/>
+    <hyperlink ref="A1" location="目录!B7" display="目录!B7" xr:uid="{4AA8CC3F-0B30-4E08-BD0B-861A4C95CD79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A50223-EF79-4EEB-B139-4584A11C68D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA17261E-731F-4E0E-B89E-0BF3E294C37B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2621,7 +3236,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -2629,73 +3244,73 @@
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -2705,14 +3320,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B8" display="目录!B8" xr:uid="{DB30499D-B62E-46E5-B734-66E128680449}"/>
+    <hyperlink ref="A1" location="目录!B8" display="目录!B8" xr:uid="{56C4679A-2D4E-4124-9DA1-AE4681A36B3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1CD1A-8840-4C15-8BB2-1A0BB2C0A95D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD31F0B-7CA8-4F5F-B225-C0261E95AFEC}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2727,7 +3342,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -2735,115 +3350,115 @@
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -2853,14 +3468,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B9" display="目录!B9" xr:uid="{C4453451-FA0B-44AD-9EAA-83831FB63A47}"/>
+    <hyperlink ref="A1" location="目录!B9" display="目录!B9" xr:uid="{7F102678-5C6E-4044-9ACF-3582451CBD20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1598ADCC-4C76-4B9D-8F8B-12CADE307251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CB0C9-8637-4FDE-9779-0E11BB66D67A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -2875,7 +3490,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2883,73 +3498,73 @@
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -2959,7 +3574,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="目录!B10" display="目录!B10" xr:uid="{2BC01E41-62D6-46D0-BC7F-AB5C7583A56C}"/>
+    <hyperlink ref="A1" location="目录!B10" display="目录!B10" xr:uid="{D214A9D2-3A9A-4CD3-865A-5B138E47B8B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
